--- a/project 1.xlsx
+++ b/project 1.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEEP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5530B37E-7A7D-49C0-BD5B-7BDE0498EEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{202DCC19-6BDB-4D2C-AF3A-02D4148C952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A7199445-4D3E-4DAD-B789-68AE6F105397}"/>
   </bookViews>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -765,7 +766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -852,7 +853,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -861,13 +861,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1722,32 +1722,32 @@
         <f>COUNTIF($C$2:$C$21,"&gt;50")</f>
         <v>19</v>
       </c>
-      <c r="O2" s="43" cm="1">
+      <c r="O2" s="40" cm="1">
         <f t="array" ref="O2:W3">_xlfn._xlws.FILTER(Table5[],Table5[Average]&gt;80,"Not Available")</f>
         <v>1012</v>
       </c>
-      <c r="P2" s="43" t="str">
+      <c r="P2" s="40" t="str">
         <v>Student 12</v>
       </c>
-      <c r="Q2" s="43">
+      <c r="Q2" s="40">
         <v>85</v>
       </c>
-      <c r="R2" s="43">
+      <c r="R2" s="40">
         <v>89</v>
       </c>
-      <c r="S2" s="43">
+      <c r="S2" s="40">
         <v>79</v>
       </c>
-      <c r="T2" s="43">
+      <c r="T2" s="40">
         <v>45081</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="40">
         <v>253</v>
       </c>
-      <c r="V2" s="43">
+      <c r="V2" s="40">
         <v>84.333333333333329</v>
       </c>
-      <c r="W2" s="43" t="str">
+      <c r="W2" s="40" t="str">
         <v>A</v>
       </c>
     </row>
@@ -1786,31 +1786,31 @@
         <f>IF(AND(Table5[[#This Row],[Math]]&gt;80,Table5[[#This Row],[Science]]&gt;80),"Yes","No")</f>
         <v>No</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="40">
         <v>1013</v>
       </c>
-      <c r="P3" s="43" t="str">
+      <c r="P3" s="40" t="str">
         <v>Student 13</v>
       </c>
-      <c r="Q3" s="43">
+      <c r="Q3" s="40">
         <v>98</v>
       </c>
-      <c r="R3" s="43">
+      <c r="R3" s="40">
         <v>90</v>
       </c>
-      <c r="S3" s="43">
+      <c r="S3" s="40">
         <v>97</v>
       </c>
-      <c r="T3" s="43">
+      <c r="T3" s="40">
         <v>45261</v>
       </c>
-      <c r="U3" s="43">
+      <c r="U3" s="40">
         <v>285</v>
       </c>
-      <c r="V3" s="43">
+      <c r="V3" s="40">
         <v>95</v>
       </c>
-      <c r="W3" s="43" t="str">
+      <c r="W3" s="40" t="str">
         <v>A</v>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       <c r="N13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="36">
         <f>_xlfn.XMATCH(N13,C2:C21,0,1)</f>
         <v>3</v>
       </c>
@@ -4132,11 +4132,11 @@
         <f>FIND(Table3[[#This Row],[Last Name]],Table3[[#This Row],[Full Name]],1)</f>
         <v>7</v>
       </c>
-      <c r="E2" s="36" t="str">
+      <c r="E2" t="str">
         <f>UPPER(Table3[[#This Row],[Full Name]])</f>
         <v>AARAV SHARMA</v>
       </c>
-      <c r="F2" s="36" t="str">
+      <c r="F2" t="str">
         <f>LOWER(Table3[[#This Row],[Full Name]])</f>
         <v>aarav sharma</v>
       </c>
@@ -4157,11 +4157,11 @@
         <f>FIND(Table3[[#This Row],[Last Name]],Table3[[#This Row],[Full Name]],1)</f>
         <v>7</v>
       </c>
-      <c r="E3" s="36" t="str">
+      <c r="E3" t="str">
         <f>UPPER(Table3[[#This Row],[Full Name]])</f>
         <v>PRIYA KAPOOR</v>
       </c>
-      <c r="F3" s="36" t="str">
+      <c r="F3" t="str">
         <f>LOWER(Table3[[#This Row],[Full Name]])</f>
         <v>priya kapoor</v>
       </c>
@@ -4182,11 +4182,11 @@
         <f>FIND(Table3[[#This Row],[Last Name]],Table3[[#This Row],[Full Name]],1)</f>
         <v>6</v>
       </c>
-      <c r="E4" s="36" t="str">
+      <c r="E4" t="str">
         <f>UPPER(Table3[[#This Row],[Full Name]])</f>
         <v>ROHAN MEHTA</v>
       </c>
-      <c r="F4" s="36" t="str">
+      <c r="F4" t="str">
         <f>LOWER(Table3[[#This Row],[Full Name]])</f>
         <v>rohan mehta</v>
       </c>
@@ -4207,11 +4207,11 @@
         <f>FIND(Table3[[#This Row],[Last Name]],Table3[[#This Row],[Full Name]],1)</f>
         <v>5</v>
       </c>
-      <c r="E5" s="36" t="str">
+      <c r="E5" t="str">
         <f>UPPER(Table3[[#This Row],[Full Name]])</f>
         <v>NEHA VERMA</v>
       </c>
-      <c r="F5" s="36" t="str">
+      <c r="F5" t="str">
         <f>LOWER(Table3[[#This Row],[Full Name]])</f>
         <v>neha verma</v>
       </c>
@@ -4239,7 +4239,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -4253,7 +4253,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="39">
+      <c r="A2" s="38">
         <v>33678</v>
       </c>
       <c r="B2">
@@ -4264,13 +4264,13 @@
         <f ca="1">DATEDIF(Table6[[#This Row],[Birth Date]],$K$2,"D")</f>
         <v>12294</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="37">
         <f ca="1">TODAY()</f>
         <v>45972</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
+      <c r="A3" s="38">
         <v>32346</v>
       </c>
       <c r="B3">
@@ -4283,7 +4283,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="A4" s="38">
         <v>35012</v>
       </c>
       <c r="B4">
@@ -4296,7 +4296,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="38">
         <v>32903</v>
       </c>
       <c r="B5">
@@ -4309,7 +4309,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+      <c r="A6" s="38">
         <v>35933</v>
       </c>
       <c r="B6">
@@ -4322,7 +4322,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="38">
         <v>34237</v>
       </c>
       <c r="B7">
@@ -4335,7 +4335,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
+      <c r="A8" s="38">
         <v>32121</v>
       </c>
       <c r="B8">
@@ -4348,7 +4348,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="38">
         <v>35158</v>
       </c>
       <c r="B9">
@@ -4361,7 +4361,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>33464</v>
       </c>
       <c r="B10">
@@ -4374,7 +4374,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="38">
         <v>36218</v>
       </c>
       <c r="B11">
@@ -4387,7 +4387,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+      <c r="A12" s="38">
         <v>34504</v>
       </c>
       <c r="B12">
@@ -4400,7 +4400,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="38">
         <v>32788</v>
       </c>
       <c r="B13">
@@ -4413,7 +4413,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="38">
         <v>35793</v>
       </c>
       <c r="B14">
@@ -4426,7 +4426,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+      <c r="A15" s="38">
         <v>33129</v>
       </c>
       <c r="B15">
@@ -4439,7 +4439,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+      <c r="A16" s="38">
         <v>33974</v>
       </c>
       <c r="B16">
@@ -4452,7 +4452,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+      <c r="A17" s="38">
         <v>34906</v>
       </c>
       <c r="B17">
@@ -4465,7 +4465,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="38">
         <v>32458</v>
       </c>
       <c r="B18">
@@ -4478,7 +4478,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="38">
         <v>36228</v>
       </c>
       <c r="B19">
@@ -4491,7 +4491,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+      <c r="A20" s="38">
         <v>33744</v>
       </c>
       <c r="B20">
@@ -4504,7 +4504,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+      <c r="A21" s="38">
         <v>35308</v>
       </c>
       <c r="B21">
